--- a/data/strategies/山西场外策略结果.xlsx
+++ b/data/strategies/山西场外策略结果.xlsx
@@ -18,14 +18,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="176">
+  <si>
+    <t>南方中证申万有色金属ETF联接A</t>
+  </si>
   <si>
     <t>国泰中证煤炭ETF联接A</t>
   </si>
   <si>
-    <t>南方中证申万有色金属ETF联接A</t>
-  </si>
-  <si>
     <t>富国中证娱乐主题指数增强</t>
   </si>
   <si>
@@ -59,73 +59,70 @@
     <t>年化波动率-2020/12/31至今</t>
   </si>
   <si>
-    <t>0.08%</t>
-  </si>
-  <si>
-    <t>2.14%</t>
-  </si>
-  <si>
-    <t>-1.62%</t>
-  </si>
-  <si>
-    <t>11.42%</t>
-  </si>
-  <si>
-    <t>11.17%</t>
-  </si>
-  <si>
-    <t>6.55%</t>
-  </si>
-  <si>
-    <t>9.39%</t>
-  </si>
-  <si>
-    <t>7.25%</t>
-  </si>
-  <si>
-    <t>0.78%</t>
-  </si>
-  <si>
-    <t>13.79%</t>
-  </si>
-  <si>
-    <t>10.97%</t>
-  </si>
-  <si>
-    <t>11.64%</t>
-  </si>
-  <si>
-    <t>16.57%</t>
-  </si>
-  <si>
-    <t>10.61%</t>
-  </si>
-  <si>
-    <t>15.64%</t>
-  </si>
-  <si>
-    <t>20.95%</t>
-  </si>
-  <si>
-    <t>15.72%</t>
-  </si>
-  <si>
-    <t>20.87%</t>
+    <t>-2.88%</t>
+  </si>
+  <si>
+    <t>1.67%</t>
+  </si>
+  <si>
+    <t>-3.19%</t>
+  </si>
+  <si>
+    <t>4.96%</t>
+  </si>
+  <si>
+    <t>7.19%</t>
+  </si>
+  <si>
+    <t>-0.67%</t>
+  </si>
+  <si>
+    <t>7.85%</t>
+  </si>
+  <si>
+    <t>6.87%</t>
+  </si>
+  <si>
+    <t>-2.72%</t>
+  </si>
+  <si>
+    <t>16.71%</t>
+  </si>
+  <si>
+    <t>12.78%</t>
+  </si>
+  <si>
+    <t>15.76%</t>
+  </si>
+  <si>
+    <t>17.34%</t>
+  </si>
+  <si>
+    <t>11.19%</t>
+  </si>
+  <si>
+    <t>16.01%</t>
+  </si>
+  <si>
+    <t>20.76%</t>
+  </si>
+  <si>
+    <t>15.54%</t>
+  </si>
+  <si>
+    <t>20.71%</t>
   </si>
   <si>
     <t>场外权重</t>
   </si>
   <si>
-    <t>市盈率PE_TTM</t>
-  </si>
-  <si>
-    <t>市净率PB</t>
-  </si>
-  <si>
-    <t>营业收入同比增长率（%）</t>
-  </si>
-  <si>
-    <t>归母净利润同比增长率（%）</t>
+    <t>PB(LY)</t>
+  </si>
+  <si>
+    <t>PE(TTM)</t>
+  </si>
+  <si>
+    <t>归母净利润同比增长率</t>
   </si>
   <si>
     <t>场外基金</t>
@@ -134,67 +131,67 @@
     <t>场外代码</t>
   </si>
   <si>
+    <t>004432.OF</t>
+  </si>
+  <si>
     <t>008279.OF</t>
   </si>
   <si>
-    <t>004432.OF</t>
-  </si>
-  <si>
     <t>161036.OF</t>
   </si>
   <si>
-    <t>12.19%</t>
-  </si>
-  <si>
-    <t>-1.50%</t>
-  </si>
-  <si>
-    <t>-6.04%</t>
-  </si>
-  <si>
-    <t>34.12%</t>
-  </si>
-  <si>
-    <t>14.33%</t>
-  </si>
-  <si>
-    <t>-1.52%</t>
-  </si>
-  <si>
-    <t>32.97%</t>
-  </si>
-  <si>
-    <t>11.73%</t>
-  </si>
-  <si>
-    <t>-3.57%</t>
-  </si>
-  <si>
-    <t>26.31%</t>
-  </si>
-  <si>
-    <t>26.53%</t>
-  </si>
-  <si>
-    <t>12.56%</t>
-  </si>
-  <si>
-    <t>30.59%</t>
-  </si>
-  <si>
-    <t>29.01%</t>
-  </si>
-  <si>
-    <t>15.71%</t>
-  </si>
-  <si>
-    <t>32.00%</t>
-  </si>
-  <si>
-    <t>38.11%</t>
-  </si>
-  <si>
-    <t>18.02%</t>
+    <t>12.18%</t>
+  </si>
+  <si>
+    <t>-4.02%</t>
+  </si>
+  <si>
+    <t>-10.63%</t>
+  </si>
+  <si>
+    <t>23.14%</t>
+  </si>
+  <si>
+    <t>16.62%</t>
+  </si>
+  <si>
+    <t>-10.48%</t>
+  </si>
+  <si>
+    <t>27.53%</t>
+  </si>
+  <si>
+    <t>23.37%</t>
+  </si>
+  <si>
+    <t>-9.75%</t>
+  </si>
+  <si>
+    <t>36.04%</t>
+  </si>
+  <si>
+    <t>29.79%</t>
+  </si>
+  <si>
+    <t>14.42%</t>
+  </si>
+  <si>
+    <t>32.11%</t>
+  </si>
+  <si>
+    <t>32.13%</t>
+  </si>
+  <si>
+    <t>16.51%</t>
+  </si>
+  <si>
+    <t>38.54%</t>
+  </si>
+  <si>
+    <t>32.39%</t>
+  </si>
+  <si>
+    <t>18.08%</t>
   </si>
   <si>
     <t>股票代码</t>
@@ -209,7 +206,7 @@
     <t>财报主营构成</t>
   </si>
   <si>
-    <t>区间涨跌幅</t>
+    <t>区间收益率</t>
   </si>
   <si>
     <t>601888.SH</t>
@@ -221,112 +218,115 @@
     <t>300413.SZ</t>
   </si>
   <si>
-    <t>002460.SZ</t>
-  </si>
-  <si>
-    <t>601225.SH</t>
-  </si>
-  <si>
-    <t>601899.SH</t>
-  </si>
-  <si>
-    <t>601088.SH</t>
+    <t>002555.SZ</t>
   </si>
   <si>
     <t>000069.SZ</t>
   </si>
   <si>
-    <t>603799.SH</t>
-  </si>
-  <si>
-    <t>002555.SZ</t>
-  </si>
-  <si>
-    <t>000723.SZ</t>
+    <t>002624.SZ</t>
   </si>
   <si>
     <t>300144.SZ</t>
   </si>
   <si>
-    <t>000983.SZ</t>
-  </si>
-  <si>
-    <t>601898.SH</t>
-  </si>
-  <si>
-    <t>002624.SZ</t>
-  </si>
-  <si>
-    <t>601699.SH</t>
-  </si>
-  <si>
     <t>002602.SZ</t>
   </si>
   <si>
-    <t>600188.SH</t>
+    <t>603444.SH</t>
   </si>
   <si>
     <t>600754.SH</t>
   </si>
   <si>
-    <t>603444.SH</t>
-  </si>
-  <si>
-    <t>7.99%</t>
-  </si>
-  <si>
-    <t>4.94%</t>
-  </si>
-  <si>
-    <t>3.01%</t>
-  </si>
-  <si>
-    <t>2.61%</t>
-  </si>
-  <si>
-    <t>2.47%</t>
-  </si>
-  <si>
-    <t>2.46%</t>
-  </si>
-  <si>
-    <t>2.23%</t>
-  </si>
-  <si>
-    <t>1.96%</t>
-  </si>
-  <si>
-    <t>1.89%</t>
-  </si>
-  <si>
-    <t>1.76%</t>
-  </si>
-  <si>
-    <t>1.73%</t>
-  </si>
-  <si>
-    <t>1.59%</t>
-  </si>
-  <si>
-    <t>1.57%</t>
-  </si>
-  <si>
-    <t>1.49%</t>
-  </si>
-  <si>
-    <t>1.42%</t>
-  </si>
-  <si>
-    <t>1.41%</t>
-  </si>
-  <si>
-    <t>1.36%</t>
-  </si>
-  <si>
-    <t>1.31%</t>
-  </si>
-  <si>
-    <t>1.24%</t>
+    <t>600637.SH</t>
+  </si>
+  <si>
+    <t>002558.SZ</t>
+  </si>
+  <si>
+    <t>002739.SZ</t>
+  </si>
+  <si>
+    <t>300418.SZ</t>
+  </si>
+  <si>
+    <t>300251.SZ</t>
+  </si>
+  <si>
+    <t>002174.SZ</t>
+  </si>
+  <si>
+    <t>600258.SH</t>
+  </si>
+  <si>
+    <t>300315.SZ</t>
+  </si>
+  <si>
+    <t>300182.SZ</t>
+  </si>
+  <si>
+    <t>300002.SZ</t>
+  </si>
+  <si>
+    <t>496.15%</t>
+  </si>
+  <si>
+    <t>486.35%</t>
+  </si>
+  <si>
+    <t>323.35%</t>
+  </si>
+  <si>
+    <t>211.55%</t>
+  </si>
+  <si>
+    <t>201.95%</t>
+  </si>
+  <si>
+    <t>184.20%</t>
+  </si>
+  <si>
+    <t>174.45%</t>
+  </si>
+  <si>
+    <t>158.35%</t>
+  </si>
+  <si>
+    <t>151.25%</t>
+  </si>
+  <si>
+    <t>137.80%</t>
+  </si>
+  <si>
+    <t>111.05%</t>
+  </si>
+  <si>
+    <t>106.90%</t>
+  </si>
+  <si>
+    <t>93.25%</t>
+  </si>
+  <si>
+    <t>88.95%</t>
+  </si>
+  <si>
+    <t>83.95%</t>
+  </si>
+  <si>
+    <t>83.25%</t>
+  </si>
+  <si>
+    <t>78.00%</t>
+  </si>
+  <si>
+    <t>77.55%</t>
+  </si>
+  <si>
+    <t>68.05%</t>
+  </si>
+  <si>
+    <t>62.95%</t>
   </si>
   <si>
     <t>中国中免</t>
@@ -338,55 +338,55 @@
     <t>芒果超媒</t>
   </si>
   <si>
-    <t>赣锋锂业</t>
-  </si>
-  <si>
-    <t>陕西煤业</t>
-  </si>
-  <si>
-    <t>紫金矿业</t>
-  </si>
-  <si>
-    <t>中国神华</t>
+    <t>三七互娱</t>
   </si>
   <si>
     <t>华侨城A</t>
   </si>
   <si>
-    <t>华友钴业</t>
-  </si>
-  <si>
-    <t>三七互娱</t>
-  </si>
-  <si>
-    <t>美锦能源</t>
+    <t>完美世界</t>
   </si>
   <si>
     <t>宋城演艺</t>
   </si>
   <si>
-    <t>山西焦煤</t>
-  </si>
-  <si>
-    <t>中煤能源</t>
-  </si>
-  <si>
-    <t>完美世界</t>
-  </si>
-  <si>
-    <t>潞安环能</t>
-  </si>
-  <si>
     <t>世纪华通</t>
   </si>
   <si>
-    <t>兖州煤业</t>
+    <t>吉比特</t>
   </si>
   <si>
     <t>锦江酒店</t>
   </si>
   <si>
-    <t>吉比特</t>
+    <t>东方明珠</t>
+  </si>
+  <si>
+    <t>巨人网络</t>
+  </si>
+  <si>
+    <t>万达电影</t>
+  </si>
+  <si>
+    <t>昆仑万维</t>
+  </si>
+  <si>
+    <t>光线传媒</t>
+  </si>
+  <si>
+    <t>游族网络</t>
+  </si>
+  <si>
+    <t>首旅酒店</t>
+  </si>
+  <si>
+    <t>掌趣科技</t>
+  </si>
+  <si>
+    <t>捷成股份</t>
+  </si>
+  <si>
+    <t>神州泰岳</t>
   </si>
   <si>
     <t>商品贸易-免税商品</t>
@@ -398,112 +398,112 @@
     <t>互联网视频业务</t>
   </si>
   <si>
-    <t>锂系列产品</t>
-  </si>
-  <si>
-    <t>原选煤</t>
-  </si>
-  <si>
-    <t>加工、冶炼及贸易金</t>
-  </si>
-  <si>
-    <t>煤炭收入</t>
+    <t>移动游戏</t>
   </si>
   <si>
     <t>旅游综合收入</t>
   </si>
   <si>
-    <t>其他</t>
-  </si>
-  <si>
-    <t>移动游戏</t>
-  </si>
-  <si>
-    <t>焦炭产品及副产品</t>
+    <t>移动网络游戏</t>
   </si>
   <si>
     <t>杭州宋城旅游区</t>
   </si>
   <si>
-    <t>煤炭</t>
-  </si>
-  <si>
-    <t>煤炭业务</t>
-  </si>
-  <si>
-    <t>移动网络游戏</t>
-  </si>
-  <si>
     <t>游戏运营收入</t>
   </si>
   <si>
-    <t>其他业务</t>
+    <t>自主运营</t>
   </si>
   <si>
     <t>经济型酒店营运及管理业务</t>
   </si>
   <si>
-    <t>自主运营</t>
-  </si>
-  <si>
-    <t>17.41%</t>
+    <t>有线电视</t>
+  </si>
+  <si>
+    <t>移动端网络游戏收入</t>
+  </si>
+  <si>
+    <t>票房</t>
+  </si>
+  <si>
+    <t>增值服务收入-社交网络收入</t>
+  </si>
+  <si>
+    <t>电影</t>
+  </si>
+  <si>
+    <t>酒店运营</t>
+  </si>
+  <si>
+    <t>移动终端游戏</t>
+  </si>
+  <si>
+    <t>影视版权运营及服务</t>
+  </si>
+  <si>
+    <t>手机游戏业务</t>
+  </si>
+  <si>
+    <t>8.97%</t>
+  </si>
+  <si>
+    <t>-13.42%</t>
+  </si>
+  <si>
+    <t>-17.29%</t>
+  </si>
+  <si>
+    <t>-29.48%</t>
+  </si>
+  <si>
+    <t>16.20%</t>
+  </si>
+  <si>
+    <t>-35.84%</t>
+  </si>
+  <si>
+    <t>-3.82%</t>
+  </si>
+  <si>
+    <t>-13.41%</t>
+  </si>
+  <si>
+    <t>26.22%</t>
+  </si>
+  <si>
+    <t>4.14%</t>
   </si>
   <si>
     <t>-4.33%</t>
   </si>
   <si>
-    <t>-3.09%</t>
-  </si>
-  <si>
-    <t>21.15%</t>
-  </si>
-  <si>
-    <t>27.90%</t>
-  </si>
-  <si>
-    <t>7.55%</t>
-  </si>
-  <si>
-    <t>8.99%</t>
-  </si>
-  <si>
-    <t>18.82%</t>
-  </si>
-  <si>
-    <t>47.51%</t>
-  </si>
-  <si>
-    <t>-20.65%</t>
-  </si>
-  <si>
-    <t>13.72%</t>
-  </si>
-  <si>
-    <t>-0.80%</t>
-  </si>
-  <si>
-    <t>50.26%</t>
-  </si>
-  <si>
-    <t>66.07%</t>
-  </si>
-  <si>
-    <t>-14.75%</t>
-  </si>
-  <si>
-    <t>90.23%</t>
-  </si>
-  <si>
-    <t>-6.42%</t>
-  </si>
-  <si>
-    <t>48.22%</t>
-  </si>
-  <si>
-    <t>5.28%</t>
-  </si>
-  <si>
-    <t>25.98%</t>
+    <t>-22.37%</t>
+  </si>
+  <si>
+    <t>-5.76%</t>
+  </si>
+  <si>
+    <t>-4.38%</t>
+  </si>
+  <si>
+    <t>-12.99%</t>
+  </si>
+  <si>
+    <t>18.33%</t>
+  </si>
+  <si>
+    <t>13.04%</t>
+  </si>
+  <si>
+    <t>-16.15%</t>
+  </si>
+  <si>
+    <t>57.59%</t>
+  </si>
+  <si>
+    <t>-2.15%</t>
   </si>
   <si>
     <t>一级标签</t>
@@ -518,37 +518,34 @@
     <t>商业贸易</t>
   </si>
   <si>
-    <t>锂电池</t>
+    <t>营销服务</t>
   </si>
   <si>
     <t>休闲旅游</t>
   </si>
   <si>
-    <t>有色金属</t>
-  </si>
-  <si>
-    <t>房地产开发</t>
-  </si>
-  <si>
-    <t>30.05%</t>
-  </si>
-  <si>
-    <t>26.74%</t>
-  </si>
-  <si>
-    <t>17.43%</t>
-  </si>
-  <si>
-    <t>9.81%</t>
-  </si>
-  <si>
-    <t>6.32%</t>
-  </si>
-  <si>
-    <t>5.37%</t>
-  </si>
-  <si>
-    <t>4.27%</t>
+    <t>房地产</t>
+  </si>
+  <si>
+    <t>互联网通信</t>
+  </si>
+  <si>
+    <t>34.31%</t>
+  </si>
+  <si>
+    <t>9.92%</t>
+  </si>
+  <si>
+    <t>9.73%</t>
+  </si>
+  <si>
+    <t>7.81%</t>
+  </si>
+  <si>
+    <t>4.04%</t>
+  </si>
+  <si>
+    <t>1.78%</t>
   </si>
 </sst>
 </file>
@@ -912,7 +909,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G118"/>
+  <dimension ref="A1:G127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -969,10 +966,10 @@
         <v>44200</v>
       </c>
       <c r="B3">
+        <v>1.053925925925926</v>
+      </c>
+      <c r="C3">
         <v>1.017034304105503</v>
-      </c>
-      <c r="C3">
-        <v>1.053925925925926</v>
       </c>
       <c r="D3">
         <v>1.007722007722008</v>
@@ -992,10 +989,10 @@
         <v>44201</v>
       </c>
       <c r="B4">
+        <v>1.065283950617284</v>
+      </c>
+      <c r="C4">
         <v>0.9947405604835545</v>
-      </c>
-      <c r="C4">
-        <v>1.065283950617284</v>
       </c>
       <c r="D4">
         <v>1.002895752895753</v>
@@ -1015,10 +1012,10 @@
         <v>44202</v>
       </c>
       <c r="B5">
+        <v>1.070320987654321</v>
+      </c>
+      <c r="C5">
         <v>0.9875971426328597</v>
-      </c>
-      <c r="C5">
-        <v>1.070320987654321</v>
       </c>
       <c r="D5">
         <v>0.9973455598455598</v>
@@ -1038,10 +1035,10 @@
         <v>44203</v>
       </c>
       <c r="B6">
+        <v>1.109135802469136</v>
+      </c>
+      <c r="C6">
         <v>1.00007849909726</v>
-      </c>
-      <c r="C6">
-        <v>1.109135802469136</v>
       </c>
       <c r="D6">
         <v>0.9835907335907337</v>
@@ -1061,10 +1058,10 @@
         <v>44204</v>
       </c>
       <c r="B7">
+        <v>1.105481481481482</v>
+      </c>
+      <c r="C7">
         <v>0.9957610487479394</v>
-      </c>
-      <c r="C7">
-        <v>1.105481481481482</v>
       </c>
       <c r="D7">
         <v>1.001206563706564</v>
@@ -1084,10 +1081,10 @@
         <v>44207</v>
       </c>
       <c r="B8">
+        <v>1.064395061728395</v>
+      </c>
+      <c r="C8">
         <v>0.9556480100478845</v>
-      </c>
-      <c r="C8">
-        <v>1.064395061728395</v>
       </c>
       <c r="D8">
         <v>1.008445945945946</v>
@@ -1107,10 +1104,10 @@
         <v>44208</v>
       </c>
       <c r="B9">
+        <v>1.087012345679012</v>
+      </c>
+      <c r="C9">
         <v>0.9651464008163906</v>
-      </c>
-      <c r="C9">
-        <v>1.087012345679012</v>
       </c>
       <c r="D9">
         <v>1.005912162162162</v>
@@ -1130,10 +1127,10 @@
         <v>44209</v>
       </c>
       <c r="B10">
+        <v>1.054716049382716</v>
+      </c>
+      <c r="C10">
         <v>0.961927937828715</v>
-      </c>
-      <c r="C10">
-        <v>1.054716049382716</v>
       </c>
       <c r="D10">
         <v>1.001568532818533</v>
@@ -1153,10 +1150,10 @@
         <v>44210</v>
       </c>
       <c r="B11">
+        <v>1.036444444444445</v>
+      </c>
+      <c r="C11">
         <v>0.9430881544862234</v>
-      </c>
-      <c r="C11">
-        <v>1.036444444444445</v>
       </c>
       <c r="D11">
         <v>0.9898648648648649</v>
@@ -1176,10 +1173,10 @@
         <v>44211</v>
       </c>
       <c r="B12">
+        <v>1.045925925925926</v>
+      </c>
+      <c r="C12">
         <v>0.9603579558835074</v>
-      </c>
-      <c r="C12">
-        <v>1.045925925925926</v>
       </c>
       <c r="D12">
         <v>0.990588803088803</v>
@@ -1199,10 +1196,10 @@
         <v>44214</v>
       </c>
       <c r="B13">
+        <v>1.060938271604938</v>
+      </c>
+      <c r="C13">
         <v>0.9788837428369574</v>
-      </c>
-      <c r="C13">
-        <v>1.060938271604938</v>
       </c>
       <c r="D13">
         <v>1.003257722007722</v>
@@ -1222,10 +1219,10 @@
         <v>44215</v>
       </c>
       <c r="B14">
+        <v>1.025975308641975</v>
+      </c>
+      <c r="C14">
         <v>0.9773922599890101</v>
-      </c>
-      <c r="C14">
-        <v>1.025975308641975</v>
       </c>
       <c r="D14">
         <v>0.9969835907335908</v>
@@ -1245,10 +1242,10 @@
         <v>44216</v>
       </c>
       <c r="B15">
+        <v>1.05441975308642</v>
+      </c>
+      <c r="C15">
         <v>0.9771567626972288</v>
-      </c>
-      <c r="C15">
-        <v>1.05441975308642</v>
       </c>
       <c r="D15">
         <v>1.003137065637066</v>
@@ -1268,10 +1265,10 @@
         <v>44217</v>
       </c>
       <c r="B16">
+        <v>1.089777777777778</v>
+      </c>
+      <c r="C16">
         <v>1.000549493680823</v>
-      </c>
-      <c r="C16">
-        <v>1.089777777777778</v>
       </c>
       <c r="D16">
         <v>1.012427606177606</v>
@@ -1291,10 +1288,10 @@
         <v>44218</v>
       </c>
       <c r="B17">
+        <v>1.099555555555556</v>
+      </c>
+      <c r="C17">
         <v>0.9747232906821571</v>
-      </c>
-      <c r="C17">
-        <v>1.099555555555556</v>
       </c>
       <c r="D17">
         <v>1.014720077220077</v>
@@ -1314,10 +1311,10 @@
         <v>44221</v>
       </c>
       <c r="B18">
+        <v>1.114567901234568</v>
+      </c>
+      <c r="C18">
         <v>0.9693853520684512</v>
-      </c>
-      <c r="C18">
-        <v>1.114567901234568</v>
       </c>
       <c r="D18">
         <v>1.014116795366795</v>
@@ -1337,10 +1334,10 @@
         <v>44222</v>
       </c>
       <c r="B19">
+        <v>1.095308641975309</v>
+      </c>
+      <c r="C19">
         <v>0.9841431823534029</v>
-      </c>
-      <c r="C19">
-        <v>1.095308641975309</v>
       </c>
       <c r="D19">
         <v>1.009049227799228</v>
@@ -1360,10 +1357,10 @@
         <v>44223</v>
       </c>
       <c r="B20">
+        <v>1.088987654320988</v>
+      </c>
+      <c r="C20">
         <v>0.9833581913807991</v>
-      </c>
-      <c r="C20">
-        <v>1.088987654320988</v>
       </c>
       <c r="D20">
         <v>1.037162162162162</v>
@@ -1383,10 +1380,10 @@
         <v>44224</v>
       </c>
       <c r="B21">
+        <v>1.051160493827161</v>
+      </c>
+      <c r="C21">
         <v>0.9558050082424052</v>
-      </c>
-      <c r="C21">
-        <v>1.051160493827161</v>
       </c>
       <c r="D21">
         <v>1.021718146718147</v>
@@ -1406,10 +1403,10 @@
         <v>44225</v>
       </c>
       <c r="B22">
+        <v>1.039111111111111</v>
+      </c>
+      <c r="C22">
         <v>0.9287228196875736</v>
-      </c>
-      <c r="C22">
-        <v>1.039111111111111</v>
       </c>
       <c r="D22">
         <v>1.020632239382239</v>
@@ -1429,10 +1426,10 @@
         <v>44228</v>
       </c>
       <c r="B23">
+        <v>1.05037037037037</v>
+      </c>
+      <c r="C23">
         <v>0.9485045921971896</v>
-      </c>
-      <c r="C23">
-        <v>1.05037037037037</v>
       </c>
       <c r="D23">
         <v>1.034749034749035</v>
@@ -1452,10 +1449,10 @@
         <v>44229</v>
       </c>
       <c r="B24">
+        <v>1.079506172839506</v>
+      </c>
+      <c r="C24">
         <v>0.9389277023314231</v>
-      </c>
-      <c r="C24">
-        <v>1.079506172839506</v>
       </c>
       <c r="D24">
         <v>1.038368725868726</v>
@@ -1475,10 +1472,10 @@
         <v>44230</v>
       </c>
       <c r="B25">
+        <v>1.085037037037037</v>
+      </c>
+      <c r="C25">
         <v>0.9326477745505926</v>
-      </c>
-      <c r="C25">
-        <v>1.085037037037037</v>
       </c>
       <c r="D25">
         <v>1.041867760617761</v>
@@ -1498,10 +1495,10 @@
         <v>44231</v>
       </c>
       <c r="B26">
+        <v>1.041679012345679</v>
+      </c>
+      <c r="C26">
         <v>0.932726273647853</v>
-      </c>
-      <c r="C26">
-        <v>1.041679012345679</v>
       </c>
       <c r="D26">
         <v>1.006515444015444</v>
@@ -1521,10 +1518,10 @@
         <v>44232</v>
       </c>
       <c r="B27">
+        <v>0.992888888888889</v>
+      </c>
+      <c r="C27">
         <v>0.9011696365491796</v>
-      </c>
-      <c r="C27">
-        <v>0.992888888888889</v>
       </c>
       <c r="D27">
         <v>1.006756756756757</v>
@@ -1544,10 +1541,10 @@
         <v>44235</v>
       </c>
       <c r="B28">
+        <v>1.030518518518519</v>
+      </c>
+      <c r="C28">
         <v>0.9220503964204412</v>
-      </c>
-      <c r="C28">
-        <v>1.030518518518519</v>
       </c>
       <c r="D28">
         <v>1.021718146718147</v>
@@ -1567,10 +1564,10 @@
         <v>44236</v>
       </c>
       <c r="B29">
+        <v>1.078518518518519</v>
+      </c>
+      <c r="C29">
         <v>0.9455216265012951</v>
-      </c>
-      <c r="C29">
-        <v>1.078518518518519</v>
       </c>
       <c r="D29">
         <v>1.036317567567568</v>
@@ -1590,10 +1587,10 @@
         <v>44237</v>
       </c>
       <c r="B30">
+        <v>1.106172839506173</v>
+      </c>
+      <c r="C30">
         <v>0.9401051887903289</v>
-      </c>
-      <c r="C30">
-        <v>1.106172839506173</v>
       </c>
       <c r="D30">
         <v>1.048262548262548</v>
@@ -1613,10 +1610,10 @@
         <v>44245</v>
       </c>
       <c r="B31">
+        <v>1.177382716049383</v>
+      </c>
+      <c r="C31">
         <v>0.9961535442342412</v>
-      </c>
-      <c r="C31">
-        <v>1.177382716049383</v>
       </c>
       <c r="D31">
         <v>1.062017374517374</v>
@@ -1636,10 +1633,10 @@
         <v>44246</v>
       </c>
       <c r="B32">
+        <v>1.193679012345679</v>
+      </c>
+      <c r="C32">
         <v>1.029751157861685</v>
-      </c>
-      <c r="C32">
-        <v>1.193679012345679</v>
       </c>
       <c r="D32">
         <v>1.075530888030888</v>
@@ -1659,10 +1656,10 @@
         <v>44249</v>
       </c>
       <c r="B33">
+        <v>1.248592592592593</v>
+      </c>
+      <c r="C33">
         <v>1.055891357249392</v>
-      </c>
-      <c r="C33">
-        <v>1.248592592592593</v>
       </c>
       <c r="D33">
         <v>1.04753861003861</v>
@@ -1682,10 +1679,10 @@
         <v>44250</v>
       </c>
       <c r="B34">
+        <v>1.233283950617284</v>
+      </c>
+      <c r="C34">
         <v>1.021979747232907</v>
-      </c>
-      <c r="C34">
-        <v>1.233283950617284</v>
       </c>
       <c r="D34">
         <v>1.032335907335907</v>
@@ -1705,10 +1702,10 @@
         <v>44251</v>
       </c>
       <c r="B35">
+        <v>1.182617283950617</v>
+      </c>
+      <c r="C35">
         <v>1.011931862783578</v>
-      </c>
-      <c r="C35">
-        <v>1.182617283950617</v>
       </c>
       <c r="D35">
         <v>1.030043436293436</v>
@@ -1728,10 +1725,10 @@
         <v>44252</v>
       </c>
       <c r="B36">
+        <v>1.170172839506173</v>
+      </c>
+      <c r="C36">
         <v>1.01240285736714</v>
-      </c>
-      <c r="C36">
-        <v>1.170172839506173</v>
       </c>
       <c r="D36">
         <v>1.025458494208494</v>
@@ -1751,10 +1748,10 @@
         <v>44253</v>
       </c>
       <c r="B37">
+        <v>1.12079012345679</v>
+      </c>
+      <c r="C37">
         <v>0.982102205824633</v>
-      </c>
-      <c r="C37">
-        <v>1.12079012345679</v>
       </c>
       <c r="D37">
         <v>1.005912162162162</v>
@@ -1774,10 +1771,10 @@
         <v>44256</v>
       </c>
       <c r="B38">
+        <v>1.159308641975309</v>
+      </c>
+      <c r="C38">
         <v>1.003767956668498</v>
-      </c>
-      <c r="C38">
-        <v>1.159308641975309</v>
       </c>
       <c r="D38">
         <v>1.035714285714286</v>
@@ -1797,10 +1794,10 @@
         <v>44257</v>
       </c>
       <c r="B39">
+        <v>1.122864197530864</v>
+      </c>
+      <c r="C39">
         <v>1.012638354658921</v>
-      </c>
-      <c r="C39">
-        <v>1.122864197530864</v>
       </c>
       <c r="D39">
         <v>1.02726833976834</v>
@@ -1820,10 +1817,10 @@
         <v>44258</v>
       </c>
       <c r="B40">
+        <v>1.161975308641976</v>
+      </c>
+      <c r="C40">
         <v>1.052751393358976</v>
-      </c>
-      <c r="C40">
-        <v>1.161975308641976</v>
       </c>
       <c r="D40">
         <v>1.040781853281853</v>
@@ -1843,10 +1840,10 @@
         <v>44259</v>
       </c>
       <c r="B41">
+        <v>1.119012345679012</v>
+      </c>
+      <c r="C41">
         <v>1.052986890650757</v>
-      </c>
-      <c r="C41">
-        <v>1.119012345679012</v>
       </c>
       <c r="D41">
         <v>1.02159749034749</v>
@@ -1866,10 +1863,10 @@
         <v>44260</v>
       </c>
       <c r="B42">
+        <v>1.084641975308642</v>
+      </c>
+      <c r="C42">
         <v>1.031478138001413</v>
-      </c>
-      <c r="C42">
-        <v>1.084641975308642</v>
       </c>
       <c r="D42">
         <v>1.024372586872587</v>
@@ -1889,10 +1886,10 @@
         <v>44263</v>
       </c>
       <c r="B43">
+        <v>1.056197530864198</v>
+      </c>
+      <c r="C43">
         <v>1.028259675013737</v>
-      </c>
-      <c r="C43">
-        <v>1.056197530864198</v>
       </c>
       <c r="D43">
         <v>1.004826254826255</v>
@@ -1912,10 +1909,10 @@
         <v>44264</v>
       </c>
       <c r="B44">
+        <v>1.04</v>
+      </c>
+      <c r="C44">
         <v>1.018133291467148</v>
-      </c>
-      <c r="C44">
-        <v>1.04</v>
       </c>
       <c r="D44">
         <v>0.9974662162162162</v>
@@ -1935,10 +1932,10 @@
         <v>44265</v>
       </c>
       <c r="B45">
+        <v>1.039012345679012</v>
+      </c>
+      <c r="C45">
         <v>1.028416673208258</v>
-      </c>
-      <c r="C45">
-        <v>1.039012345679012</v>
       </c>
       <c r="D45">
         <v>0.9885376447876448</v>
@@ -1958,10 +1955,10 @@
         <v>44266</v>
       </c>
       <c r="B46">
+        <v>1.099950617283951</v>
+      </c>
+      <c r="C46">
         <v>1.050945914121987</v>
-      </c>
-      <c r="C46">
-        <v>1.099950617283951</v>
       </c>
       <c r="D46">
         <v>0.9978281853281853</v>
@@ -1981,10 +1978,10 @@
         <v>44267</v>
       </c>
       <c r="B47">
+        <v>1.087901234567901</v>
+      </c>
+      <c r="C47">
         <v>1.064055263364471</v>
-      </c>
-      <c r="C47">
-        <v>1.087901234567901</v>
       </c>
       <c r="D47">
         <v>0.9980694980694982</v>
@@ -2004,10 +2001,10 @@
         <v>44270</v>
       </c>
       <c r="B48">
+        <v>1.089876543209876</v>
+      </c>
+      <c r="C48">
         <v>1.076301122537091</v>
-      </c>
-      <c r="C48">
-        <v>1.089876543209876</v>
       </c>
       <c r="D48">
         <v>0.9827461389961391</v>
@@ -2027,10 +2024,10 @@
         <v>44271</v>
       </c>
       <c r="B49">
+        <v>1.068246913580247</v>
+      </c>
+      <c r="C49">
         <v>1.059502315723369</v>
-      </c>
-      <c r="C49">
-        <v>1.068246913580247</v>
       </c>
       <c r="D49">
         <v>0.9908301158301159</v>
@@ -2050,10 +2047,10 @@
         <v>44272</v>
       </c>
       <c r="B50">
+        <v>1.074172839506173</v>
+      </c>
+      <c r="C50">
         <v>1.067430724546668</v>
-      </c>
-      <c r="C50">
-        <v>1.074172839506173</v>
       </c>
       <c r="D50">
         <v>0.9973455598455598</v>
@@ -2073,10 +2070,10 @@
         <v>44273</v>
       </c>
       <c r="B51">
+        <v>1.074271604938271</v>
+      </c>
+      <c r="C51">
         <v>1.055891357249392</v>
-      </c>
-      <c r="C51">
-        <v>1.074271604938271</v>
       </c>
       <c r="D51">
         <v>1.005429536679537</v>
@@ -2096,10 +2093,10 @@
         <v>44274</v>
       </c>
       <c r="B52">
+        <v>1.053037037037037</v>
+      </c>
+      <c r="C52">
         <v>1.044665986341157</v>
-      </c>
-      <c r="C52">
-        <v>1.053037037037037</v>
       </c>
       <c r="D52">
         <v>0.9863658301158301</v>
@@ -2119,10 +2116,10 @@
         <v>44277</v>
       </c>
       <c r="B53">
+        <v>1.056493827160494</v>
+      </c>
+      <c r="C53">
         <v>1.051181411413769</v>
-      </c>
-      <c r="C53">
-        <v>1.056493827160494</v>
       </c>
       <c r="D53">
         <v>0.9956563706563707</v>
@@ -2142,10 +2139,10 @@
         <v>44278</v>
       </c>
       <c r="B54">
+        <v>1.01758024691358</v>
+      </c>
+      <c r="C54">
         <v>1.013580343826046</v>
-      </c>
-      <c r="C54">
-        <v>1.01758024691358</v>
       </c>
       <c r="D54">
         <v>0.9884169884169884</v>
@@ -2165,10 +2162,10 @@
         <v>44279</v>
       </c>
       <c r="B55">
+        <v>0.977283950617284</v>
+      </c>
+      <c r="C55">
         <v>0.9914435983986183</v>
-      </c>
-      <c r="C55">
-        <v>0.977283950617284</v>
       </c>
       <c r="D55">
         <v>0.9791264478764479</v>
@@ -2188,10 +2185,10 @@
         <v>44280</v>
       </c>
       <c r="B56">
+        <v>0.9830123456790123</v>
+      </c>
+      <c r="C56">
         <v>1.011931862783578</v>
-      </c>
-      <c r="C56">
-        <v>0.9830123456790123</v>
       </c>
       <c r="D56">
         <v>0.981418918918919</v>
@@ -2211,10 +2208,10 @@
         <v>44281</v>
       </c>
       <c r="B57">
+        <v>1.015012345679013</v>
+      </c>
+      <c r="C57">
         <v>1.014129837506869</v>
-      </c>
-      <c r="C57">
-        <v>1.015012345679013</v>
       </c>
       <c r="D57">
         <v>0.9973455598455598</v>
@@ -2234,10 +2231,10 @@
         <v>44284</v>
       </c>
       <c r="B58">
+        <v>1.011950617283951</v>
+      </c>
+      <c r="C58">
         <v>1.060601303085015</v>
-      </c>
-      <c r="C58">
-        <v>1.011950617283951</v>
       </c>
       <c r="D58">
         <v>0.9971042471042472</v>
@@ -2257,10 +2254,10 @@
         <v>44285</v>
       </c>
       <c r="B59">
+        <v>1.025185185185185</v>
+      </c>
+      <c r="C59">
         <v>1.045136980924719</v>
-      </c>
-      <c r="C59">
-        <v>1.025185185185185</v>
       </c>
       <c r="D59">
         <v>0.9954150579150579</v>
@@ -2280,10 +2277,10 @@
         <v>44286</v>
       </c>
       <c r="B60">
+        <v>1.002074074074074</v>
+      </c>
+      <c r="C60">
         <v>1.042232514326085</v>
-      </c>
-      <c r="C60">
-        <v>1.002074074074074</v>
       </c>
       <c r="D60">
         <v>0.9913127413127414</v>
@@ -2303,10 +2300,10 @@
         <v>44287</v>
       </c>
       <c r="B61">
+        <v>1.010469135802469</v>
+      </c>
+      <c r="C61">
         <v>1.046000470994584</v>
-      </c>
-      <c r="C61">
-        <v>1.010469135802469</v>
       </c>
       <c r="D61">
         <v>1.00132722007722</v>
@@ -2326,10 +2323,10 @@
         <v>44288</v>
       </c>
       <c r="B62">
+        <v>1.018666666666667</v>
+      </c>
+      <c r="C62">
         <v>1.034775100086349</v>
-      </c>
-      <c r="C62">
-        <v>1.018666666666667</v>
       </c>
       <c r="D62">
         <v>1.011703667953668</v>
@@ -2349,10 +2346,10 @@
         <v>44292</v>
       </c>
       <c r="B63">
+        <v>1.024</v>
+      </c>
+      <c r="C63">
         <v>1.043566998979512</v>
-      </c>
-      <c r="C63">
-        <v>1.024</v>
       </c>
       <c r="D63">
         <v>1.008566602316602</v>
@@ -2372,10 +2369,10 @@
         <v>44293</v>
       </c>
       <c r="B64">
+        <v>1.035654320987654</v>
+      </c>
+      <c r="C64">
         <v>1.057853834680901</v>
-      </c>
-      <c r="C64">
-        <v>1.035654320987654</v>
       </c>
       <c r="D64">
         <v>1.008204633204633</v>
@@ -2395,10 +2392,10 @@
         <v>44294</v>
       </c>
       <c r="B65">
+        <v>1.048098765432099</v>
+      </c>
+      <c r="C65">
         <v>1.064761755239815</v>
-      </c>
-      <c r="C65">
-        <v>1.048098765432099</v>
       </c>
       <c r="D65">
         <v>1.003137065637066</v>
@@ -2418,10 +2415,10 @@
         <v>44295</v>
       </c>
       <c r="B66">
+        <v>1.045728395061728</v>
+      </c>
+      <c r="C66">
         <v>1.080697071983672</v>
-      </c>
-      <c r="C66">
-        <v>1.045728395061728</v>
       </c>
       <c r="D66">
         <v>1.005550193050193</v>
@@ -2441,10 +2438,10 @@
         <v>44298</v>
       </c>
       <c r="B67">
+        <v>1.004543209876543</v>
+      </c>
+      <c r="C67">
         <v>1.073867650522019</v>
-      </c>
-      <c r="C67">
-        <v>1.004543209876543</v>
       </c>
       <c r="D67">
         <v>0.9847972972972974</v>
@@ -2464,10 +2461,10 @@
         <v>44299</v>
       </c>
       <c r="B68">
+        <v>0.9978271604938271</v>
+      </c>
+      <c r="C68">
         <v>1.051338409608289</v>
-      </c>
-      <c r="C68">
-        <v>0.9978271604938271</v>
       </c>
       <c r="D68">
         <v>0.9634411196911197</v>
@@ -2487,10 +2484,10 @@
         <v>44300</v>
       </c>
       <c r="B69">
+        <v>1.020246913580247</v>
+      </c>
+      <c r="C69">
         <v>1.059502315723369</v>
-      </c>
-      <c r="C69">
-        <v>1.020246913580247</v>
       </c>
       <c r="D69">
         <v>0.9873310810810811</v>
@@ -2510,10 +2507,10 @@
         <v>44301</v>
       </c>
       <c r="B70">
+        <v>1.035358024691358</v>
+      </c>
+      <c r="C70">
         <v>1.06798021822749</v>
-      </c>
-      <c r="C70">
-        <v>1.035358024691358</v>
       </c>
       <c r="D70">
         <v>0.974903474903475</v>
@@ -2533,10 +2530,10 @@
         <v>44302</v>
       </c>
       <c r="B71">
+        <v>1.029827160493827</v>
+      </c>
+      <c r="C71">
         <v>1.097260381505613</v>
-      </c>
-      <c r="C71">
-        <v>1.029827160493827</v>
       </c>
       <c r="D71">
         <v>0.9832287644787645</v>
@@ -2556,10 +2553,10 @@
         <v>44305</v>
       </c>
       <c r="B72">
+        <v>1.066666666666667</v>
+      </c>
+      <c r="C72">
         <v>1.10911374519193</v>
-      </c>
-      <c r="C72">
-        <v>1.066666666666667</v>
       </c>
       <c r="D72">
         <v>0.9961389961389961</v>
@@ -2579,10 +2576,10 @@
         <v>44306</v>
       </c>
       <c r="B73">
+        <v>1.057086419753086</v>
+      </c>
+      <c r="C73">
         <v>1.103618808383704</v>
-      </c>
-      <c r="C73">
-        <v>1.057086419753086</v>
       </c>
       <c r="D73">
         <v>0.9998793436293436</v>
@@ -2602,10 +2599,10 @@
         <v>44307</v>
       </c>
       <c r="B74">
+        <v>1.049876543209876</v>
+      </c>
+      <c r="C74">
         <v>1.101970327341236</v>
-      </c>
-      <c r="C74">
-        <v>1.049876543209876</v>
       </c>
       <c r="D74">
         <v>1.004826254826255</v>
@@ -2625,10 +2622,10 @@
         <v>44308</v>
       </c>
       <c r="B75">
+        <v>1.054024691358025</v>
+      </c>
+      <c r="C75">
         <v>1.112253709082346</v>
-      </c>
-      <c r="C75">
-        <v>1.054024691358025</v>
       </c>
       <c r="D75">
         <v>1.007239382239382</v>
@@ -2648,10 +2645,10 @@
         <v>44309</v>
       </c>
       <c r="B76">
+        <v>1.065086419753086</v>
+      </c>
+      <c r="C76">
         <v>1.098280869769998</v>
-      </c>
-      <c r="C76">
-        <v>1.065086419753086</v>
       </c>
       <c r="D76">
         <v>1.003378378378379</v>
@@ -2671,10 +2668,10 @@
         <v>44312</v>
       </c>
       <c r="B77">
+        <v>1.072987654320988</v>
+      </c>
+      <c r="C77">
         <v>1.117748645890572</v>
-      </c>
-      <c r="C77">
-        <v>1.072987654320988</v>
       </c>
       <c r="D77">
         <v>1.007239382239382</v>
@@ -2694,10 +2691,10 @@
         <v>44313</v>
       </c>
       <c r="B78">
+        <v>1.075259259259259</v>
+      </c>
+      <c r="C78">
         <v>1.103697307480964</v>
-      </c>
-      <c r="C78">
-        <v>1.075259259259259</v>
       </c>
       <c r="D78">
         <v>1.008204633204633</v>
@@ -2717,10 +2714,10 @@
         <v>44314</v>
       </c>
       <c r="B79">
+        <v>1.075654320987654</v>
+      </c>
+      <c r="C79">
         <v>1.136195933746762</v>
-      </c>
-      <c r="C79">
-        <v>1.075654320987654</v>
       </c>
       <c r="D79">
         <v>1.016167953667954</v>
@@ -2740,10 +2737,10 @@
         <v>44315</v>
       </c>
       <c r="B80">
+        <v>1.085530864197531</v>
+      </c>
+      <c r="C80">
         <v>1.143888845278279</v>
-      </c>
-      <c r="C80">
-        <v>1.085530864197531</v>
       </c>
       <c r="D80">
         <v>1.009773166023166</v>
@@ -2763,10 +2760,10 @@
         <v>44316</v>
       </c>
       <c r="B81">
+        <v>1.083358024691358</v>
+      </c>
+      <c r="C81">
         <v>1.109506240678232</v>
-      </c>
-      <c r="C81">
-        <v>1.083358024691358</v>
       </c>
       <c r="D81">
         <v>1.005550193050193</v>
@@ -2786,10 +2783,10 @@
         <v>44322</v>
       </c>
       <c r="B82">
+        <v>1.109135802469136</v>
+      </c>
+      <c r="C82">
         <v>1.15644870083994</v>
-      </c>
-      <c r="C82">
-        <v>1.109135802469136</v>
       </c>
       <c r="D82">
         <v>0.9810569498069499</v>
@@ -2809,10 +2806,10 @@
         <v>44323</v>
       </c>
       <c r="B83">
+        <v>1.136987654320988</v>
+      </c>
+      <c r="C83">
         <v>1.204725645655075</v>
-      </c>
-      <c r="C83">
-        <v>1.136987654320988</v>
       </c>
       <c r="D83">
         <v>0.9666988416988418</v>
@@ -2832,10 +2829,10 @@
         <v>44326</v>
       </c>
       <c r="B84">
+        <v>1.191012345679012</v>
+      </c>
+      <c r="C84">
         <v>1.27160687652092</v>
-      </c>
-      <c r="C84">
-        <v>1.191012345679012</v>
       </c>
       <c r="D84">
         <v>0.9660955598455598</v>
@@ -2855,10 +2852,10 @@
         <v>44327</v>
       </c>
       <c r="B85">
+        <v>1.144296296296296</v>
+      </c>
+      <c r="C85">
         <v>1.244053693382526</v>
-      </c>
-      <c r="C85">
-        <v>1.144296296296296</v>
       </c>
       <c r="D85">
         <v>0.964165057915058</v>
@@ -2878,10 +2875,10 @@
         <v>44328</v>
       </c>
       <c r="B86">
+        <v>1.149432098765432</v>
+      </c>
+      <c r="C86">
         <v>1.254886568804459</v>
-      </c>
-      <c r="C86">
-        <v>1.149432098765432</v>
       </c>
       <c r="D86">
         <v>0.9740588803088803</v>
@@ -2901,10 +2898,10 @@
         <v>44329</v>
       </c>
       <c r="B87">
+        <v>1.095111111111111</v>
+      </c>
+      <c r="C87">
         <v>1.204097652876992</v>
-      </c>
-      <c r="C87">
-        <v>1.095111111111111</v>
       </c>
       <c r="D87">
         <v>0.9670608108108109</v>
@@ -2924,10 +2921,10 @@
         <v>44330</v>
       </c>
       <c r="B88">
+        <v>1.100246913580247</v>
+      </c>
+      <c r="C88">
         <v>1.192715283774237</v>
-      </c>
-      <c r="C88">
-        <v>1.100246913580247</v>
       </c>
       <c r="D88">
         <v>0.9781611969111969</v>
@@ -2947,10 +2944,10 @@
         <v>44333</v>
       </c>
       <c r="B89">
+        <v>1.13037037037037</v>
+      </c>
+      <c r="C89">
         <v>1.191616296412591</v>
-      </c>
-      <c r="C89">
-        <v>1.13037037037037</v>
       </c>
       <c r="D89">
         <v>0.9915540540540541</v>
@@ -2970,10 +2967,10 @@
         <v>44334</v>
       </c>
       <c r="B90">
+        <v>1.144098765432099</v>
+      </c>
+      <c r="C90">
         <v>1.197346730512599</v>
-      </c>
-      <c r="C90">
-        <v>1.144098765432099</v>
       </c>
       <c r="D90">
         <v>0.9960183397683398</v>
@@ -2993,10 +2990,10 @@
         <v>44335</v>
       </c>
       <c r="B91">
+        <v>1.150123456790124</v>
+      </c>
+      <c r="C91">
         <v>1.177564958002983</v>
-      </c>
-      <c r="C91">
-        <v>1.150123456790124</v>
       </c>
       <c r="D91">
         <v>0.9928812741312741</v>
@@ -3016,10 +3013,10 @@
         <v>44336</v>
       </c>
       <c r="B92">
+        <v>1.117037037037037</v>
+      </c>
+      <c r="C92">
         <v>1.136745427427585</v>
-      </c>
-      <c r="C92">
-        <v>1.117037037037037</v>
       </c>
       <c r="D92">
         <v>0.9995173745173745</v>
@@ -3039,10 +3036,10 @@
         <v>44337</v>
       </c>
       <c r="B93">
+        <v>1.123061728395062</v>
+      </c>
+      <c r="C93">
         <v>1.152759243268702</v>
-      </c>
-      <c r="C93">
-        <v>1.123061728395062</v>
       </c>
       <c r="D93">
         <v>0.9923986486486487</v>
@@ -3062,10 +3059,10 @@
         <v>44340</v>
       </c>
       <c r="B94">
+        <v>1.115358024691358</v>
+      </c>
+      <c r="C94">
         <v>1.150011774864589</v>
-      </c>
-      <c r="C94">
-        <v>1.115358024691358</v>
       </c>
       <c r="D94">
         <v>1.00132722007722</v>
@@ -3085,10 +3082,10 @@
         <v>44341</v>
       </c>
       <c r="B95">
+        <v>1.124345679012346</v>
+      </c>
+      <c r="C95">
         <v>1.166418086192009</v>
-      </c>
-      <c r="C95">
-        <v>1.124345679012346</v>
       </c>
       <c r="D95">
         <v>1.022321428571429</v>
@@ -3108,10 +3105,10 @@
         <v>44342</v>
       </c>
       <c r="B96">
+        <v>1.134123456790123</v>
+      </c>
+      <c r="C96">
         <v>1.168537561818039</v>
-      </c>
-      <c r="C96">
-        <v>1.134123456790123</v>
       </c>
       <c r="D96">
         <v>1.01761583011583</v>
@@ -3131,10 +3128,10 @@
         <v>44343</v>
       </c>
       <c r="B97">
+        <v>1.134320987654321</v>
+      </c>
+      <c r="C97">
         <v>1.18517937043724</v>
-      </c>
-      <c r="C97">
-        <v>1.134320987654321</v>
       </c>
       <c r="D97">
         <v>1.026303088803089</v>
@@ -3154,10 +3151,10 @@
         <v>44344</v>
       </c>
       <c r="B98">
+        <v>1.150913580246914</v>
+      </c>
+      <c r="C98">
         <v>1.176465970641338</v>
-      </c>
-      <c r="C98">
-        <v>1.150913580246914</v>
       </c>
       <c r="D98">
         <v>1.016529922779923</v>
@@ -3177,10 +3174,10 @@
         <v>44347</v>
       </c>
       <c r="B99">
+        <v>1.181432098765432</v>
+      </c>
+      <c r="C99">
         <v>1.181332914671481</v>
-      </c>
-      <c r="C99">
-        <v>1.181432098765432</v>
       </c>
       <c r="D99">
         <v>1.013030888030888</v>
@@ -3200,10 +3197,10 @@
         <v>44348</v>
       </c>
       <c r="B100">
+        <v>1.183111111111111</v>
+      </c>
+      <c r="C100">
         <v>1.219718973231808</v>
-      </c>
-      <c r="C100">
-        <v>1.183111111111111</v>
       </c>
       <c r="D100">
         <v>1.016409266409267</v>
@@ -3223,10 +3220,10 @@
         <v>44349</v>
       </c>
       <c r="B101">
+        <v>1.166716049382716</v>
+      </c>
+      <c r="C101">
         <v>1.226234398304419</v>
-      </c>
-      <c r="C101">
-        <v>1.166716049382716</v>
       </c>
       <c r="D101">
         <v>1.003619691119691</v>
@@ -3246,10 +3243,10 @@
         <v>44350</v>
       </c>
       <c r="B102">
+        <v>1.167012345679012</v>
+      </c>
+      <c r="C102">
         <v>1.2468796608839</v>
-      </c>
-      <c r="C102">
-        <v>1.167012345679012</v>
       </c>
       <c r="D102">
         <v>1.005188223938224</v>
@@ -3269,10 +3266,10 @@
         <v>44351</v>
       </c>
       <c r="B103">
+        <v>1.163654320987654</v>
+      </c>
+      <c r="C103">
         <v>1.227254886568804</v>
-      </c>
-      <c r="C103">
-        <v>1.163654320987654</v>
       </c>
       <c r="D103">
         <v>1.010014478764479</v>
@@ -3292,10 +3289,10 @@
         <v>44354</v>
       </c>
       <c r="B104">
+        <v>1.158617283950617</v>
+      </c>
+      <c r="C104">
         <v>1.243739696993485</v>
-      </c>
-      <c r="C104">
-        <v>1.158617283950617</v>
       </c>
       <c r="D104">
         <v>1.017133204633205</v>
@@ -3315,10 +3312,10 @@
         <v>44355</v>
       </c>
       <c r="B105">
+        <v>1.133333333333333</v>
+      </c>
+      <c r="C105">
         <v>1.236125284559227</v>
-      </c>
-      <c r="C105">
-        <v>1.133333333333333</v>
       </c>
       <c r="D105">
         <v>1.021838803088803</v>
@@ -3338,10 +3335,10 @@
         <v>44356</v>
       </c>
       <c r="B106">
+        <v>1.13679012345679</v>
+      </c>
+      <c r="C106">
         <v>1.285422717638747</v>
-      </c>
-      <c r="C106">
-        <v>1.13679012345679</v>
       </c>
       <c r="D106">
         <v>1.009893822393822</v>
@@ -3361,10 +3358,10 @@
         <v>44357</v>
       </c>
       <c r="B107">
+        <v>1.141728395061728</v>
+      </c>
+      <c r="C107">
         <v>1.27568882957846</v>
-      </c>
-      <c r="C107">
-        <v>1.141728395061728</v>
       </c>
       <c r="D107">
         <v>1.010014478764479</v>
@@ -3384,10 +3381,10 @@
         <v>44358</v>
       </c>
       <c r="B108">
+        <v>1.142617283950617</v>
+      </c>
+      <c r="C108">
         <v>1.282596750137373</v>
-      </c>
-      <c r="C108">
-        <v>1.142617283950617</v>
       </c>
       <c r="D108">
         <v>0.9956563706563707</v>
@@ -3407,10 +3404,10 @@
         <v>44362</v>
       </c>
       <c r="B109">
+        <v>1.103506172839506</v>
+      </c>
+      <c r="C109">
         <v>1.277651307009969</v>
-      </c>
-      <c r="C109">
-        <v>1.103506172839506</v>
       </c>
       <c r="D109">
         <v>0.9873310810810811</v>
@@ -3430,10 +3427,10 @@
         <v>44363</v>
       </c>
       <c r="B110">
+        <v>1.05679012345679</v>
+      </c>
+      <c r="C110">
         <v>1.270272391867494</v>
-      </c>
-      <c r="C110">
-        <v>1.05679012345679</v>
       </c>
       <c r="D110">
         <v>0.9738175675675677</v>
@@ -3453,10 +3450,10 @@
         <v>44364</v>
       </c>
       <c r="B111">
+        <v>1.061037037037037</v>
+      </c>
+      <c r="C111">
         <v>1.277415809718188</v>
-      </c>
-      <c r="C111">
-        <v>1.061037037037037</v>
       </c>
       <c r="D111">
         <v>0.9653716216216217</v>
@@ -3476,10 +3473,10 @@
         <v>44365</v>
       </c>
       <c r="B112">
+        <v>1.078617283950617</v>
+      </c>
+      <c r="C112">
         <v>1.251118612135961</v>
-      </c>
-      <c r="C112">
-        <v>1.078617283950617</v>
       </c>
       <c r="D112">
         <v>0.9657335907335908</v>
@@ -3499,10 +3496,10 @@
         <v>44368</v>
       </c>
       <c r="B113">
+        <v>1.07358024691358</v>
+      </c>
+      <c r="C113">
         <v>1.231493837820865</v>
-      </c>
-      <c r="C113">
-        <v>1.07358024691358</v>
       </c>
       <c r="D113">
         <v>0.9734555984555985</v>
@@ -3522,10 +3519,10 @@
         <v>44369</v>
       </c>
       <c r="B114">
+        <v>1.079407407407407</v>
+      </c>
+      <c r="C114">
         <v>1.244289190674307</v>
-      </c>
-      <c r="C114">
-        <v>1.079407407407407</v>
       </c>
       <c r="D114">
         <v>0.9679054054054055</v>
@@ -3545,10 +3542,10 @@
         <v>44370</v>
       </c>
       <c r="B115">
+        <v>1.096691358024692</v>
+      </c>
+      <c r="C115">
         <v>1.282439751942853</v>
-      </c>
-      <c r="C115">
-        <v>1.096691358024692</v>
       </c>
       <c r="D115">
         <v>0.9787644787644788</v>
@@ -3568,10 +3565,10 @@
         <v>44371</v>
       </c>
       <c r="B116">
+        <v>1.089975308641975</v>
+      </c>
+      <c r="C116">
         <v>1.288248685140121</v>
-      </c>
-      <c r="C116">
-        <v>1.089975308641975</v>
       </c>
       <c r="D116">
         <v>0.9638030888030887</v>
@@ -3591,10 +3588,10 @@
         <v>44372</v>
       </c>
       <c r="B117">
+        <v>1.117333333333333</v>
+      </c>
+      <c r="C117">
         <v>1.329696208493602</v>
-      </c>
-      <c r="C117">
-        <v>1.117333333333333</v>
       </c>
       <c r="D117">
         <v>0.9642857142857143</v>
@@ -3614,22 +3611,229 @@
         <v>44375</v>
       </c>
       <c r="B118">
-        <v>1.329696208493602</v>
+        <v>1.108444444444445</v>
       </c>
       <c r="C118">
-        <v>1.117333333333333</v>
+        <v>1.280477274511343</v>
       </c>
       <c r="D118">
-        <v>0.9642857142857143</v>
+        <v>0.9727316602316602</v>
       </c>
       <c r="E118">
-        <v>1.093900242599591</v>
+        <v>1.083596259854777</v>
       </c>
       <c r="F118">
-        <v>1.072467131869875</v>
+        <v>1.072467728686956</v>
       </c>
       <c r="G118">
-        <v>1.007765908249205</v>
+        <v>1.007765831492778</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119" s="2">
+        <v>44376</v>
+      </c>
+      <c r="B119">
+        <v>1.093728395061728</v>
+      </c>
+      <c r="C119">
+        <v>1.265248449642829</v>
+      </c>
+      <c r="D119">
+        <v>0.9682673745173745</v>
+      </c>
+      <c r="E119">
+        <v>1.073877898434827</v>
+      </c>
+      <c r="F119">
+        <v>1.062557424011836</v>
+      </c>
+      <c r="G119">
+        <v>0.9960182603539622</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120" s="2">
+        <v>44377</v>
+      </c>
+      <c r="B120">
+        <v>1.111901234567901</v>
+      </c>
+      <c r="C120">
+        <v>1.273176858466128</v>
+      </c>
+      <c r="D120">
+        <v>0.9639237451737452</v>
+      </c>
+      <c r="E120">
+        <v>1.07823139584538</v>
+      </c>
+      <c r="F120">
+        <v>1.069273186736212</v>
+      </c>
+      <c r="G120">
+        <v>1.002446611107806</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121" s="2">
+        <v>44378</v>
+      </c>
+      <c r="B121">
+        <v>1.092049382716049</v>
+      </c>
+      <c r="C121">
+        <v>1.247664651856504</v>
+      </c>
+      <c r="D121">
+        <v>0.9638030888030887</v>
+      </c>
+      <c r="E121">
+        <v>1.066830053044683</v>
+      </c>
+      <c r="F121">
+        <v>1.054900889100393</v>
+      </c>
+      <c r="G121">
+        <v>1.003525038905914</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122" s="2">
+        <v>44379</v>
+      </c>
+      <c r="B122">
+        <v>1.105679012345679</v>
+      </c>
+      <c r="C122">
+        <v>1.245780673522255</v>
+      </c>
+      <c r="D122">
+        <v>0.9461872586872587</v>
+      </c>
+      <c r="E122">
+        <v>1.060958550810613</v>
+      </c>
+      <c r="F122">
+        <v>1.045694200351494</v>
+      </c>
+      <c r="G122">
+        <v>0.975021539772302</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123" s="2">
+        <v>44382</v>
+      </c>
+      <c r="B123">
+        <v>1.155950617283951</v>
+      </c>
+      <c r="C123">
+        <v>1.271135881937358</v>
+      </c>
+      <c r="D123">
+        <v>0.9251930501930502</v>
+      </c>
+      <c r="E123">
+        <v>1.069368149901852</v>
+      </c>
+      <c r="F123">
+        <v>1.054011945765033</v>
+      </c>
+      <c r="G123">
+        <v>0.9759176710564946</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124" s="2">
+        <v>44383</v>
+      </c>
+      <c r="B124">
+        <v>1.167012345679012</v>
+      </c>
+      <c r="C124">
+        <v>1.271685375618181</v>
+      </c>
+      <c r="D124">
+        <v>0.9235038610038609</v>
+      </c>
+      <c r="E124">
+        <v>1.071426360826229</v>
+      </c>
+      <c r="F124">
+        <v>1.053774789504186</v>
+      </c>
+      <c r="G124">
+        <v>0.9754014840855144</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125" s="2">
+        <v>44384</v>
+      </c>
+      <c r="B125">
+        <v>1.202469135802469</v>
+      </c>
+      <c r="C125">
+        <v>1.254258576026376</v>
+      </c>
+      <c r="D125">
+        <v>0.924831081081081</v>
+      </c>
+      <c r="E125">
+        <v>1.076597468497752</v>
+      </c>
+      <c r="F125">
+        <v>1.062354820318795</v>
+      </c>
+      <c r="G125">
+        <v>0.9864141124366519</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126" s="2">
+        <v>44385</v>
+      </c>
+      <c r="B126">
+        <v>1.20720987654321</v>
+      </c>
+      <c r="C126">
+        <v>1.206452625794803</v>
+      </c>
+      <c r="D126">
+        <v>0.9074565637065637</v>
+      </c>
+      <c r="E126">
+        <v>1.057143907437785</v>
+      </c>
+      <c r="F126">
+        <v>1.059923576002299</v>
+      </c>
+      <c r="G126">
+        <v>0.9763916419926737</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127" s="2">
+        <v>44386</v>
+      </c>
+      <c r="B127">
+        <v>1.275259259259259</v>
+      </c>
+      <c r="C127">
+        <v>1.233691812544156</v>
+      </c>
+      <c r="D127">
+        <v>0.9025096525096525</v>
+      </c>
+      <c r="E127">
+        <v>1.07849259420568</v>
+      </c>
+      <c r="F127">
+        <v>1.068701498796157</v>
+      </c>
+      <c r="G127">
+        <v>0.9727802521064841</v>
       </c>
     </row>
   </sheetData>
@@ -3741,18 +3945,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>7</v>
@@ -3784,131 +3988,119 @@
       <c r="L1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I2">
         <v>0.25</v>
       </c>
       <c r="J2">
-        <v>10.5</v>
+        <v>3.554100036621094</v>
       </c>
       <c r="K2">
-        <v>1.19</v>
+        <v>45.20259857177734</v>
       </c>
       <c r="L2">
-        <v>-0.11</v>
-      </c>
-      <c r="M2">
-        <v>-7.33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>24.3531</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I3">
         <v>0.25</v>
       </c>
       <c r="J3">
-        <v>39.53</v>
+        <v>1.161100029945374</v>
       </c>
       <c r="K3">
-        <v>3.11</v>
+        <v>10.14039993286133</v>
       </c>
       <c r="L3">
-        <v>16.99</v>
-      </c>
-      <c r="M3">
-        <v>24.35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>-7.3254</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I4">
         <v>0.5</v>
       </c>
       <c r="J4">
-        <v>49.44</v>
+        <v>3.147300004959106</v>
       </c>
       <c r="K4">
-        <v>3.39</v>
+        <v>44.04880142211914</v>
       </c>
       <c r="L4">
-        <v>-7.1</v>
-      </c>
-      <c r="M4">
-        <v>-7.78</v>
+        <v>-7.7804</v>
       </c>
     </row>
   </sheetData>
@@ -3926,19 +4118,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3946,10 +4138,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D2" t="s">
         <v>103</v>
@@ -3966,10 +4158,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D3" t="s">
         <v>104</v>
@@ -3986,10 +4178,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D4" t="s">
         <v>105</v>
@@ -4006,10 +4198,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D5" t="s">
         <v>106</v>
@@ -4026,10 +4218,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D6" t="s">
         <v>107</v>
@@ -4046,10 +4238,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D7" t="s">
         <v>108</v>
@@ -4066,10 +4258,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D8" t="s">
         <v>109</v>
@@ -4086,10 +4278,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D9" t="s">
         <v>110</v>
@@ -4106,10 +4298,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D10" t="s">
         <v>111</v>
@@ -4126,10 +4318,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D11" t="s">
         <v>112</v>
@@ -4146,10 +4338,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D12" t="s">
         <v>113</v>
@@ -4166,10 +4358,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D13" t="s">
         <v>114</v>
@@ -4186,10 +4378,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D14" t="s">
         <v>115</v>
@@ -4206,10 +4398,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D15" t="s">
         <v>116</v>
@@ -4226,10 +4418,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D16" t="s">
         <v>117</v>
@@ -4246,16 +4438,16 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D17" t="s">
         <v>118</v>
       </c>
       <c r="E17" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="F17" t="s">
         <v>157</v>
@@ -4266,7 +4458,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C18" t="s">
         <v>99</v>
@@ -4286,7 +4478,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C19" t="s">
         <v>100</v>
@@ -4306,7 +4498,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C20" t="s">
         <v>101</v>
@@ -4326,7 +4518,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C21" t="s">
         <v>102</v>
@@ -4348,7 +4540,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4364,7 +4556,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>164</v>
@@ -4375,10 +4567,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>135</v>
+        <v>165</v>
       </c>
       <c r="C3" t="s">
         <v>171</v>
@@ -4386,10 +4578,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C4" t="s">
         <v>172</v>
@@ -4397,10 +4589,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C5" t="s">
         <v>173</v>
@@ -4408,10 +4600,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C6" t="s">
         <v>174</v>
@@ -4419,24 +4611,13 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C7" t="s">
         <v>175</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1">
-        <v>3</v>
-      </c>
-      <c r="B8" t="s">
-        <v>169</v>
-      </c>
-      <c r="C8" t="s">
-        <v>176</v>
       </c>
     </row>
   </sheetData>
